--- a/GMLA loading analysis/score_and_count.xlsx
+++ b/GMLA loading analysis/score_and_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Projects\GMLA loading analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91917D2-5571-4D24-A117-0C8FBED28C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB064D0E-A814-4648-80D6-143A841964CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>2022-02</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Ernest Fu/ Aalto Lo</t>
+  </si>
+  <si>
+    <t>Evelyn Wang</t>
   </si>
   <si>
     <t>Jason Hsu</t>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -625,32 +628,41 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
         <v>8</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
       <c r="M2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -659,7 +671,7 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -671,16 +683,16 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -688,20 +700,17 @@
       <c r="L3">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
       <c r="O3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -724,38 +733,29 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
       <c r="M4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -778,29 +778,38 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>8</v>
       </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
       <c r="N5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -823,49 +832,25 @@
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
         <v>1</v>
       </c>
       <c r="T7">
@@ -883,325 +868,421 @@
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
       <c r="F11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
       <c r="N11">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
       </c>
       <c r="R12">
         <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
